--- a/esquema-excel/maqueta llenado de tablas.xlsx
+++ b/esquema-excel/maqueta llenado de tablas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -53,18 +53,6 @@
     <t>precio</t>
   </si>
   <si>
-    <t>Acceso a maquinas</t>
-  </si>
-  <si>
-    <t>Acceso piscina</t>
-  </si>
-  <si>
-    <t>Clases dirigidas</t>
-  </si>
-  <si>
-    <t>Acceso Total</t>
-  </si>
-  <si>
     <t>id     PK</t>
   </si>
   <si>
@@ -80,36 +68,9 @@
     <t>xxxx@yo.cl</t>
   </si>
   <si>
-    <t>catogía</t>
-  </si>
-  <si>
-    <t>Mensual</t>
-  </si>
-  <si>
-    <t>Trimestral</t>
-  </si>
-  <si>
-    <t>Anual</t>
-  </si>
-  <si>
-    <t>detalle</t>
-  </si>
-  <si>
-    <t>Acceso a todo</t>
-  </si>
-  <si>
-    <t>Categoría_pase</t>
-  </si>
-  <si>
     <t>Productos</t>
   </si>
   <si>
-    <t>Cuatrimestral</t>
-  </si>
-  <si>
-    <t>Semestral</t>
-  </si>
-  <si>
     <t>Toalla de Mano</t>
   </si>
   <si>
@@ -164,44 +125,77 @@
     <t>x</t>
   </si>
   <si>
-    <t>tipo      FK -&gt; id_categoria_pase</t>
-  </si>
-  <si>
     <t>id_cliente</t>
   </si>
   <si>
-    <t>venta de pase diario</t>
-  </si>
-  <si>
-    <t>pase_suscripción</t>
-  </si>
-  <si>
-    <t>fecha_compra</t>
-  </si>
-  <si>
     <t>venta_productos</t>
   </si>
   <si>
-    <t>id_tipo_producto</t>
-  </si>
-  <si>
-    <t>Suscripción</t>
-  </si>
-  <si>
-    <t>id_suscripcion   FK_suscripción</t>
-  </si>
-  <si>
-    <t>id_cliente               FK_cliente</t>
-  </si>
-  <si>
-    <t>id_cliente             FK_cliente</t>
+    <t>tipo_transacción</t>
+  </si>
+  <si>
+    <t>venta_pase</t>
+  </si>
+  <si>
+    <t>venta_suscripción</t>
+  </si>
+  <si>
+    <t>venta_producto</t>
+  </si>
+  <si>
+    <t>Transacción</t>
+  </si>
+  <si>
+    <t>id_transaccion</t>
+  </si>
+  <si>
+    <t>FK_id_cliente</t>
+  </si>
+  <si>
+    <t>Plan Mensual</t>
+  </si>
+  <si>
+    <t>Plan Trimestral</t>
+  </si>
+  <si>
+    <t>Plan Cuatrimestral</t>
+  </si>
+  <si>
+    <t>Plan Semestral</t>
+  </si>
+  <si>
+    <t>Plan Anual</t>
+  </si>
+  <si>
+    <t>Pase acceso a maquinas</t>
+  </si>
+  <si>
+    <t>Pase acceso piscina</t>
+  </si>
+  <si>
+    <t>Pase clases dirigidas</t>
+  </si>
+  <si>
+    <t>Pase acceso Total</t>
+  </si>
+  <si>
+    <t>FK_id_servicios_gimnasio</t>
+  </si>
+  <si>
+    <t>servicios_productos_gimnasio</t>
+  </si>
+  <si>
+    <t>FK_id_tipo_producto</t>
+  </si>
+  <si>
+    <t>venta_servicios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,16 +227,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -250,26 +270,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -310,8 +359,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6848475" y="6334125"/>
-          <a:ext cx="3048000" cy="895350"/>
+          <a:off x="2914650" y="6334125"/>
+          <a:ext cx="3086100" cy="895350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -627,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24:P25"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,42 +685,44 @@
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" customWidth="1"/>
     <col min="8" max="8" width="5.28515625" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" customWidth="1"/>
-    <col min="10" max="10" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="7.42578125" customWidth="1"/>
     <col min="13" max="13" width="7.140625" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1"/>
+    <col min="15" max="15" width="23.5703125" customWidth="1"/>
     <col min="16" max="16" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="H1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="M1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="H1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -688,25 +739,26 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="I2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="M2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="L2" s="15"/>
+      <c r="M2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -715,39 +767,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>345677864</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1">
         <v>44145</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="H3" s="11">
+        <v>1</v>
+      </c>
+      <c r="I3" s="11">
+        <v>1</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1</v>
+      </c>
+      <c r="K3" s="13">
         <v>44114</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3">
+      <c r="L3" s="15"/>
+      <c r="M3" s="11">
+        <v>1</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="11">
         <v>2500</v>
       </c>
     </row>
@@ -755,19 +808,26 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="11">
         <v>2</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="M4">
+      <c r="I4" s="11">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
+        <v>1</v>
+      </c>
+      <c r="K4" s="13">
+        <v>44115</v>
+      </c>
+      <c r="L4" s="15"/>
+      <c r="M4" s="11">
         <v>2</v>
       </c>
-      <c r="N4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4">
+      <c r="N4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="11">
         <v>5000</v>
       </c>
     </row>
@@ -775,19 +835,26 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O5">
+      <c r="H5" s="11">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11">
+        <v>6</v>
+      </c>
+      <c r="K5" s="13">
+        <v>44116</v>
+      </c>
+      <c r="L5" s="15"/>
+      <c r="M5" s="11">
+        <v>3</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="11">
         <v>3000</v>
       </c>
     </row>
@@ -795,19 +862,24 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="11">
         <v>4</v>
       </c>
-      <c r="J6">
+      <c r="I6" s="11">
+        <v>3</v>
+      </c>
+      <c r="J6" s="11">
         <v>2</v>
       </c>
-      <c r="M6">
+      <c r="K6" s="11"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="11">
         <v>4</v>
       </c>
-      <c r="N6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6">
+      <c r="N6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="11">
         <v>7000</v>
       </c>
     </row>
@@ -815,64 +887,149 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="11">
         <v>5</v>
       </c>
-      <c r="J7">
+      <c r="I7" s="11">
+        <v>1</v>
+      </c>
+      <c r="J7" s="11">
         <v>2</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="11">
+        <v>5</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="11">
+        <v>25000</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="11">
         <v>6</v>
       </c>
-      <c r="J8">
-        <v>3</v>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11">
+        <v>3</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="11">
+        <v>6</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="11">
+        <v>70000</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="11">
         <v>7</v>
       </c>
-      <c r="J9">
-        <v>3</v>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11">
+        <v>4</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="11">
+        <v>7</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="11">
+        <v>90000</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="11">
         <v>8</v>
       </c>
-      <c r="J10">
-        <v>3</v>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11">
+        <v>3</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="11">
+        <v>8</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="11">
+        <v>150000</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="M14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="11">
+        <v>8</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="11">
+        <v>9</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="11">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="9"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
@@ -881,14 +1038,15 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
@@ -897,148 +1055,76 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="H16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16" t="s">
-        <v>54</v>
-      </c>
-      <c r="K16" t="s">
-        <v>50</v>
-      </c>
-      <c r="M16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N16" t="s">
-        <v>18</v>
-      </c>
-      <c r="O16" t="s">
-        <v>8</v>
-      </c>
-      <c r="P16" t="s">
-        <v>22</v>
-      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>3</v>
-      </c>
-      <c r="K17" s="1">
-        <v>44124</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17" t="s">
-        <v>19</v>
-      </c>
-      <c r="O17">
-        <v>25000</v>
-      </c>
-      <c r="P17" t="s">
-        <v>23</v>
-      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="M18">
-        <v>2</v>
-      </c>
-      <c r="N18" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18">
-        <v>70000</v>
-      </c>
-      <c r="P18" t="s">
-        <v>23</v>
-      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="M19">
-        <v>3</v>
-      </c>
-      <c r="N19" t="s">
-        <v>26</v>
-      </c>
-      <c r="O19">
-        <v>90000</v>
-      </c>
-      <c r="P19" t="s">
-        <v>23</v>
-      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H20">
-        <v>4</v>
-      </c>
-      <c r="M20">
-        <v>4</v>
-      </c>
-      <c r="N20" t="s">
-        <v>27</v>
-      </c>
-      <c r="O20">
-        <v>150000</v>
-      </c>
-      <c r="P20" t="s">
-        <v>23</v>
-      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
-      <c r="H21">
-        <v>5</v>
-      </c>
-      <c r="M21">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>21</v>
-      </c>
-      <c r="O21">
-        <v>250000</v>
-      </c>
-      <c r="P21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H22">
-        <v>6</v>
-      </c>
+      <c r="L21" s="15"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F24" s="7" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="M24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
+      <c r="M24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="7"/>
@@ -1047,10 +1133,10 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
@@ -1060,16 +1146,16 @@
         <v>7</v>
       </c>
       <c r="H26" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I26" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="J26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M26" t="s">
         <v>0</v>
@@ -1081,7 +1167,7 @@
         <v>8</v>
       </c>
       <c r="P26" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -1107,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="O27">
         <v>2500</v>
@@ -1121,7 +1207,7 @@
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="O28">
         <v>5000</v>
@@ -1135,7 +1221,7 @@
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="O29">
         <v>1500</v>
@@ -1152,7 +1238,7 @@
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="O30">
         <v>500</v>
@@ -1166,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="O31">
         <v>500</v>
@@ -1177,7 +1263,7 @@
         <v>6</v>
       </c>
       <c r="N32" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="O32">
         <v>1500</v>
@@ -1189,7 +1275,7 @@
         <v>7</v>
       </c>
       <c r="N33" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="O33">
         <v>300</v>
@@ -1200,7 +1286,7 @@
         <v>8</v>
       </c>
       <c r="N34" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="O34">
         <v>1500</v>
@@ -1211,7 +1297,7 @@
         <v>9</v>
       </c>
       <c r="N35" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="O35">
         <v>600</v>
@@ -1222,7 +1308,7 @@
         <v>10</v>
       </c>
       <c r="N36" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="O36">
         <v>1200</v>
@@ -1238,21 +1324,33 @@
       <c r="F41">
         <v>3</v>
       </c>
+      <c r="I41" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J41" s="6"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>41</v>
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
@@ -1260,7 +1358,13 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>32</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
@@ -1268,7 +1372,13 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>32</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
@@ -1276,10 +1386,16 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>32</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
@@ -1287,24 +1403,24 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>1</v>
       </c>
@@ -1312,7 +1428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C51">
         <v>2</v>
       </c>
@@ -1320,56 +1436,85 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C52">
         <v>3</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>33</v>
+      </c>
+      <c r="J52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C53">
         <v>3</v>
       </c>
       <c r="D53">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C54">
         <v>4</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C55">
         <v>4</v>
       </c>
       <c r="D55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C56">
         <v>4</v>
       </c>
       <c r="D56">
         <v>3</v>
       </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="C48:D49"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M14:P15"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="M24:P25"/>
-    <mergeCell ref="H14:K15"/>
     <mergeCell ref="F24:K25"/>
+    <mergeCell ref="I41:J42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1"/>

--- a/esquema-excel/maqueta llenado de tablas.xlsx
+++ b/esquema-excel/maqueta llenado de tablas.xlsx
@@ -182,13 +182,13 @@
     <t>FK_id_servicios_gimnasio</t>
   </si>
   <si>
-    <t>servicios_productos_gimnasio</t>
-  </si>
-  <si>
     <t>FK_id_tipo_producto</t>
   </si>
   <si>
     <t>venta_servicios</t>
+  </si>
+  <si>
+    <t>servicios_gimnasio</t>
   </si>
 </sst>
 </file>
@@ -296,29 +296,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -676,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,35 +687,35 @@
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
     <col min="10" max="10" width="25.5703125" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="7.42578125" customWidth="1"/>
     <col min="13" max="13" width="7.140625" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" customWidth="1"/>
+    <col min="14" max="14" width="25.5703125" customWidth="1"/>
     <col min="15" max="15" width="23.5703125" customWidth="1"/>
     <col min="16" max="16" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="H1" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="H1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="12" t="s">
-        <v>52</v>
       </c>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
@@ -739,26 +739,26 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="11" t="s">
+      <c r="L2" s="9"/>
+      <c r="M2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="11" t="s">
+      <c r="N2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -781,26 +781,26 @@
       <c r="F3" s="1">
         <v>44145</v>
       </c>
-      <c r="H3" s="11">
-        <v>1</v>
-      </c>
-      <c r="I3" s="11">
-        <v>1</v>
-      </c>
-      <c r="J3" s="11">
-        <v>1</v>
-      </c>
-      <c r="K3" s="13">
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
         <v>44114</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="11">
-        <v>1</v>
-      </c>
-      <c r="N3" s="11" t="s">
+      <c r="L3" s="9"/>
+      <c r="M3" s="6">
+        <v>1</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="6">
         <v>2500</v>
       </c>
     </row>
@@ -808,26 +808,26 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="6">
         <v>2</v>
       </c>
-      <c r="I4" s="11">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11">
-        <v>1</v>
-      </c>
-      <c r="K4" s="13">
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
         <v>44115</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="11">
+      <c r="L4" s="9"/>
+      <c r="M4" s="6">
         <v>2</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="6">
         <v>5000</v>
       </c>
     </row>
@@ -835,26 +835,26 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="H5" s="11">
-        <v>3</v>
-      </c>
-      <c r="I5" s="11">
-        <v>1</v>
-      </c>
-      <c r="J5" s="11">
+      <c r="H5" s="6">
+        <v>3</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6">
         <v>6</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="7">
         <v>44116</v>
       </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="11">
-        <v>3</v>
-      </c>
-      <c r="N5" s="11" t="s">
+      <c r="L5" s="9"/>
+      <c r="M5" s="6">
+        <v>3</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="6">
         <v>3000</v>
       </c>
     </row>
@@ -862,24 +862,24 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="6">
         <v>4</v>
       </c>
-      <c r="I6" s="11">
-        <v>3</v>
-      </c>
-      <c r="J6" s="11">
+      <c r="I6" s="6">
+        <v>3</v>
+      </c>
+      <c r="J6" s="6">
         <v>2</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="11">
+      <c r="K6" s="6"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="6">
         <v>4</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="6">
         <v>7000</v>
       </c>
     </row>
@@ -887,24 +887,24 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="6">
         <v>5</v>
       </c>
-      <c r="I7" s="11">
-        <v>1</v>
-      </c>
-      <c r="J7" s="11">
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
         <v>2</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="11">
+      <c r="K7" s="6"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="6">
         <v>5</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="6">
         <v>25000</v>
       </c>
     </row>
@@ -912,22 +912,22 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="6">
         <v>6</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11">
-        <v>3</v>
-      </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="11">
+      <c r="I8" s="6"/>
+      <c r="J8" s="6">
+        <v>3</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="6">
         <v>6</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="6">
         <v>70000</v>
       </c>
     </row>
@@ -935,22 +935,22 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="6">
         <v>7</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11">
+      <c r="I9" s="6"/>
+      <c r="J9" s="6">
         <v>4</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="11">
+      <c r="K9" s="6"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="6">
         <v>7</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="6">
         <v>90000</v>
       </c>
     </row>
@@ -958,22 +958,22 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="6">
         <v>8</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11">
-        <v>3</v>
-      </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="11">
+      <c r="I10" s="6"/>
+      <c r="J10" s="6">
+        <v>3</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="6">
         <v>8</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="6">
         <v>150000</v>
       </c>
     </row>
@@ -981,55 +981,55 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11">
-        <v>1</v>
-      </c>
-      <c r="J11" s="11">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
         <v>8</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="11">
+      <c r="K11" s="6"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="6">
         <v>9</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="6">
         <v>250000</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="9"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="5"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
@@ -1038,15 +1038,15 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="9"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
@@ -1055,88 +1055,88 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
-      <c r="L21" s="15"/>
+      <c r="L21" s="9"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="M24" s="8" t="s">
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="M24" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
@@ -1152,7 +1152,7 @@
         <v>26</v>
       </c>
       <c r="J26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K26" t="s">
         <v>41</v>
@@ -1324,10 +1324,10 @@
       <c r="F41">
         <v>3</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="I41" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J41" s="6"/>
+      <c r="J41" s="15"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
@@ -1339,8 +1339,8 @@
       <c r="F42" t="s">
         <v>31</v>
       </c>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
@@ -1413,12 +1413,12 @@
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C50">
